--- a/person/冀琳/用户故事.xlsx
+++ b/person/冀琳/用户故事.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jilin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7036FFE3-50A1-5D4D-9040-942E8D99D1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89195B80-BD14-DB49-931B-0A93A446472C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="460" windowWidth="24100" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="460" windowWidth="24100" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>引用编号</t>
   </si>
@@ -188,6 +188,54 @@
   </si>
   <si>
     <t>作为物业管理人员，我希望能更好对业主进行新增和删除，以便于对业主进行更好的管理。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用微信、QQ或微博可实现第三方登录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在点击首页小区公告中，能按时间完整显示小区公告内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在点击首页生活缴费时，选择不同费用，进行展示不同金额，进行缴纳。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击增加按钮时，可以以表单形式显示报修内容、上传图片，选择上门地址和上门时间。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加按钮时，可以将自己的好物以文字描述、图片、金额的形式提交。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击添加按钮时，可以将输入自己的投诉建议，并以列表形式显示。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入车牌号、车身架号、发动机号之后显示违章信息。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>以列表形式显示出朋友圈信息，并可以进行回复、点赞。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>以列表形式在后台显示出公告，点击编辑按钮可进行编辑，点击删除按钮可对公告进行删除。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在后台对于业主的投诉建议进行显示，并可以选择解决解决中按钮，对投诉建议进行处理。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于该小区的业主信息进行显示，可进行增加删除。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于物业管理人员可显示信息，可进行添加删除。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +590,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -550,9 +598,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,9 +654,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,6 +661,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Background" xfId="2" xr:uid="{0BFB96F5-E85B-499F-A0E5-742BE9119F67}"/>
@@ -911,7 +956,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -921,570 +966,595 @@
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="56.5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="71">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2</v>
       </c>
-      <c r="J2" s="4">
-        <v>95</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="J2" s="3">
+        <v>50</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>2</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="24"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" ht="44.5" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>88</v>
-      </c>
-      <c r="K3" s="3"/>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>30</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="L3" s="2"/>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="23">
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="22">
         <v>0</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="45.5" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:17" ht="58" customHeight="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>2</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>98</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="5">
+      <c r="K4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="25"/>
+      <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
     </row>
-    <row r="5" spans="1:17" ht="42" customHeight="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:17" ht="60" customHeight="1">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25">
-        <v>80</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="23">
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="24">
+        <v>40</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="22">
         <v>0</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="29"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
     </row>
-    <row r="6" spans="1:17" ht="46" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:17" ht="62" customHeight="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="25">
-        <v>78</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="23">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24">
+        <v>35</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="25"/>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="22">
         <v>0</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="29"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="27"/>
     </row>
-    <row r="7" spans="1:17" ht="41.5" customHeight="1">
-      <c r="A7" s="8">
+    <row r="7" spans="1:17" ht="61" customHeight="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25">
-        <v>75</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="5">
-        <v>1</v>
-      </c>
-      <c r="N7" s="23">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="24">
+        <v>36</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="25"/>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="22">
         <v>0</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="29"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="43.5" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>70</v>
-      </c>
-      <c r="K8" s="3"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>95</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="5">
-        <v>1</v>
-      </c>
-      <c r="N8" s="23">
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="22">
         <v>0</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="24"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="43.5" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>3</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>97</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>3</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="22">
         <v>0</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="24"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="23"/>
     </row>
-    <row r="10" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A10" s="8">
+    <row r="10" spans="1:17" ht="76" customHeight="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="J10" s="4">
-        <v>89</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="J10" s="3">
+        <v>38</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>3</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="22">
         <v>0</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="24"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="23"/>
     </row>
-    <row r="11" spans="1:17" ht="43" customHeight="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:17" ht="63" customHeight="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>3</v>
       </c>
-      <c r="J11" s="4">
-        <v>91</v>
-      </c>
-      <c r="K11" s="3"/>
+      <c r="J11" s="3">
+        <v>40</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>3</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="24"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="42" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>92</v>
-      </c>
-      <c r="K12" s="3"/>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>25</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="5">
-        <v>1</v>
-      </c>
-      <c r="N12" s="23">
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="22">
         <v>0</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="24"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="23"/>
     </row>
-    <row r="13" spans="1:17" ht="37.5" customHeight="1">
-      <c r="A13" s="8">
+    <row r="13" spans="1:17" ht="47" customHeight="1">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="4">
-        <v>71</v>
-      </c>
-      <c r="K13" s="3"/>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>11</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>55</v>
+      </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
-      <c r="N13" s="23">
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="22">
         <v>0</v>
       </c>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="24"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
